--- a/Acevedo Rendón Ismael Arturo 20212.xlsx
+++ b/Acevedo Rendón Ismael Arturo 20212.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="649">
   <si>
     <t>NC</t>
   </si>
@@ -961,9 +961,6 @@
     <t>DIAZ</t>
   </si>
   <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
     <t>CARRASCO</t>
   </si>
   <si>
@@ -1003,9 +1000,6 @@
     <t>ELIAS ALONSO</t>
   </si>
   <si>
-    <t>JESUS</t>
-  </si>
-  <si>
     <t>KARLA RENATA</t>
   </si>
   <si>
@@ -1066,9 +1060,6 @@
     <t>eliashernandezdiaz05@gmail.com</t>
   </si>
   <si>
-    <t>jesushernandezsarmiento108@gmail.com</t>
-  </si>
-  <si>
     <t>karlarenatalc@gmail.com</t>
   </si>
   <si>
@@ -1129,9 +1120,6 @@
     <t>5530259182</t>
   </si>
   <si>
-    <t>2722146369</t>
-  </si>
-  <si>
     <t>2722371602</t>
   </si>
   <si>
@@ -1223,9 +1211,6 @@
   </si>
   <si>
     <t>FRANCISCO JAVIER HERNANDEZ GONZÁLEZ</t>
-  </si>
-  <si>
-    <t>JORGE HERNÁNDEZ ATLAHUA</t>
   </si>
   <si>
     <t>DAVID ARTURO TEOBAL MONTIEL</t>
@@ -2778,6 +2763,9 @@
       <c r="J13" t="s">
         <v>146</v>
       </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
@@ -3705,7 +3693,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3766,25 +3754,25 @@
         <v>308</v>
       </c>
       <c r="D2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="J2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -3801,22 +3789,22 @@
         <v>309</v>
       </c>
       <c r="D3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -3833,25 +3821,25 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I4" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="J4" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -3868,25 +3856,25 @@
         <v>304</v>
       </c>
       <c r="D5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I5" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="J5" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -3903,25 +3891,25 @@
         <v>310</v>
       </c>
       <c r="D6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I6" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="J6" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -3938,25 +3926,25 @@
         <v>311</v>
       </c>
       <c r="D7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="J7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -3973,25 +3961,25 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G8" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H8" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I8" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J8" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -4008,22 +3996,22 @@
         <v>312</v>
       </c>
       <c r="D9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J9" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -4040,25 +4028,25 @@
         <v>313</v>
       </c>
       <c r="D10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H10" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I10" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J10" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -4066,34 +4054,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>20330051920346</v>
+        <v>20330051920271</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="C11" t="s">
         <v>314</v>
       </c>
       <c r="D11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F11" t="s">
-        <v>370</v>
-      </c>
-      <c r="G11" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H11" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I11" t="s">
-        <v>349</v>
+        <v>417</v>
       </c>
       <c r="J11" t="s">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -4101,95 +4086,98 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>20330051920271</v>
+        <v>20330051920272</v>
       </c>
       <c r="B12" t="s">
         <v>300</v>
       </c>
       <c r="C12" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F12" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H12" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I12" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J12" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>20330051920272</v>
+        <v>19220030050208</v>
       </c>
       <c r="B13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C13" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F13" t="s">
-        <v>372</v>
+        <v>369</v>
+      </c>
+      <c r="G13" t="s">
+        <v>384</v>
       </c>
       <c r="H13" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I13" t="s">
-        <v>423</v>
-      </c>
-      <c r="J13" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>19220030050208</v>
+        <v>20330051920273</v>
       </c>
       <c r="B14" t="s">
-        <v>301</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s">
-        <v>316</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F14" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G14" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H14" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I14" t="s">
-        <v>424</v>
+        <v>420</v>
+      </c>
+      <c r="J14" t="s">
+        <v>436</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -4197,34 +4185,31 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>20330051920273</v>
+        <v>20330051920274</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F15" t="s">
-        <v>374</v>
-      </c>
-      <c r="G15" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="H15" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="I15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J15" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -4232,63 +4217,66 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>20330051920274</v>
+        <v>20330051920276</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>302</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F16" t="s">
-        <v>375</v>
+        <v>372</v>
+      </c>
+      <c r="G16" t="s">
+        <v>386</v>
       </c>
       <c r="H16" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I16" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J16" t="s">
-        <v>442</v>
+        <v>438</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>20330051920276</v>
+        <v>19330051920238</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F17" t="s">
-        <v>376</v>
-      </c>
-      <c r="G17" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="H17" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="I17" t="s">
-        <v>427</v>
+        <v>353</v>
       </c>
       <c r="J17" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -4296,167 +4284,135 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>19330051920238</v>
+        <v>20330051920278</v>
       </c>
       <c r="B18" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>316</v>
       </c>
       <c r="D18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F18" t="s">
-        <v>377</v>
+        <v>374</v>
+      </c>
+      <c r="G18" t="s">
+        <v>387</v>
       </c>
       <c r="H18" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I18" t="s">
-        <v>356</v>
+        <v>423</v>
       </c>
       <c r="J18" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>20330051920278</v>
+        <v>20330051920279</v>
       </c>
       <c r="B19" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C19" t="s">
-        <v>317</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F19" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G19" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H19" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="I19" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="J19" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>20330051920279</v>
+        <v>20330051920281</v>
       </c>
       <c r="B20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>317</v>
       </c>
       <c r="D20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G20" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="H20" t="s">
-        <v>411</v>
-      </c>
-      <c r="I20" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="J20" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>20330051920281</v>
+        <v>20330051920282</v>
       </c>
       <c r="B21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C21" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="D21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F21" t="s">
-        <v>380</v>
-      </c>
-      <c r="G21" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H21" t="s">
-        <v>412</v>
+        <v>408</v>
+      </c>
+      <c r="I21" t="s">
+        <v>425</v>
       </c>
       <c r="J21" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22">
-        <v>20330051920282</v>
-      </c>
-      <c r="B22" t="s">
-        <v>307</v>
-      </c>
-      <c r="C22" t="s">
-        <v>304</v>
-      </c>
-      <c r="D22" t="s">
-        <v>339</v>
-      </c>
-      <c r="E22" t="s">
-        <v>360</v>
-      </c>
-      <c r="F22" t="s">
-        <v>381</v>
-      </c>
-      <c r="H22" t="s">
-        <v>413</v>
-      </c>
-      <c r="I22" t="s">
-        <v>430</v>
-      </c>
-      <c r="J22" t="s">
-        <v>448</v>
-      </c>
-      <c r="K22">
         <v>0</v>
       </c>
     </row>
@@ -4525,28 +4481,28 @@
         <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="H2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="I2" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="J2" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -4557,31 +4513,31 @@
         <v>19330051920308</v>
       </c>
       <c r="B3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C3" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D3" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="G3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="H3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="I3" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="J3" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -4592,31 +4548,31 @@
         <v>19330051920309</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C4" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D4" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E4" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F4" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G4" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="I4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J4" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -4627,31 +4583,31 @@
         <v>19330051920311</v>
       </c>
       <c r="B5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C5" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D5" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E5" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F5" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H5" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="I5" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="J5" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4659,31 +4615,31 @@
         <v>19330051920316</v>
       </c>
       <c r="B6" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C6" t="s">
         <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E6" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F6" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G6" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="H6" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I6" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="J6" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -4694,28 +4650,28 @@
         <v>19330051920318</v>
       </c>
       <c r="B7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C7" t="s">
         <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="H7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -4729,19 +4685,19 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D8" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E8" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F8" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="H8" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -4752,28 +4708,28 @@
         <v>19330051920323</v>
       </c>
       <c r="B9" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D9" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E9" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F9" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="H9" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I9" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="J9" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -4787,25 +4743,25 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D10" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E10" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F10" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G10" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="H10" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="J10" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -4819,28 +4775,28 @@
         <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D11" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E11" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F11" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="G11" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H11" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I11" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="J11" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -4851,31 +4807,31 @@
         <v>19330051920321</v>
       </c>
       <c r="B12" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C12" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D12" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E12" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F12" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G12" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="H12" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="I12" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="J12" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -4889,25 +4845,25 @@
         <v>300</v>
       </c>
       <c r="C13" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D13" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E13" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F13" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="H13" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="I13" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="J13" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4924,22 +4880,22 @@
         <v>157</v>
       </c>
       <c r="D14" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E14" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F14" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G14" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="H14" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="J14" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -4950,28 +4906,28 @@
         <v>19330051920331</v>
       </c>
       <c r="B15" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C15" t="s">
         <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F15" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H15" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="I15" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="J15" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -4988,25 +4944,25 @@
         <v>173</v>
       </c>
       <c r="D16" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E16" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F16" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G16" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="H16" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="I16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="J16" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -5017,28 +4973,28 @@
         <v>19330051920334</v>
       </c>
       <c r="B17" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C17" t="s">
         <v>157</v>
       </c>
       <c r="D17" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E17" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F17" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="H17" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="I17" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="J17" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -5049,31 +5005,31 @@
         <v>19330051920337</v>
       </c>
       <c r="B18" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C18" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D18" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E18" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F18" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G18" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="H18" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="I18" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="J18" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -5090,25 +5046,25 @@
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E19" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F19" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G19" t="s">
         <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="I19" t="s">
         <v>127</v>
       </c>
       <c r="J19" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -5119,22 +5075,22 @@
         <v>19330051920342</v>
       </c>
       <c r="B20" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C20" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D20" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E20" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F20" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="H20" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -5145,31 +5101,31 @@
         <v>19330051920341</v>
       </c>
       <c r="B21" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C21" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D21" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E21" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F21" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G21" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H21" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="I21" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="J21" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -5186,22 +5142,22 @@
         <v>152</v>
       </c>
       <c r="D22" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E22" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F22" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="H22" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="I22" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="J22" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -5212,31 +5168,31 @@
         <v>19330051920347</v>
       </c>
       <c r="B23" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C23" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D23" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E23" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F23" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G23" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="H23" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="I23" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="J23" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -5253,22 +5209,22 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E24" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F24" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G24" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="H24" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="J24" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -5285,25 +5241,25 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E25" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F25" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="G25" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="H25" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="I25" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="J25" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -5320,25 +5276,25 @@
         <v>305</v>
       </c>
       <c r="D26" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E26" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F26" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G26" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="H26" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="I26" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="J26" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -5349,31 +5305,31 @@
         <v>19330051920350</v>
       </c>
       <c r="B27" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C27" t="s">
         <v>309</v>
       </c>
       <c r="D27" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E27" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F27" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="G27" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="H27" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="I27" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="J27" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -5384,31 +5340,31 @@
         <v>19330051920351</v>
       </c>
       <c r="B28" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C28" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D28" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E28" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F28" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G28" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H28" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="I28" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="J28" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -5422,22 +5378,22 @@
         <v>312</v>
       </c>
       <c r="C29" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D29" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E29" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F29" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H29" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="J29" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -5448,31 +5404,31 @@
         <v>19330051920354</v>
       </c>
       <c r="B30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E30" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F30" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G30" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="H30" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="I30" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="J30" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -5483,22 +5439,22 @@
         <v>19330051920353</v>
       </c>
       <c r="B31" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C31" t="s">
         <v>304</v>
       </c>
       <c r="D31" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E31" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F31" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="H31" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -5509,31 +5465,31 @@
         <v>19330051920355</v>
       </c>
       <c r="B32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D32" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E32" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F32" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G32" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="H32" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I32" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="J32" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="K32">
         <v>0</v>

--- a/Acevedo Rendón Ismael Arturo 20212.xlsx
+++ b/Acevedo Rendón Ismael Arturo 20212.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="655">
   <si>
     <t>NC</t>
   </si>
@@ -1360,6 +1360,9 @@
     <t>BELLO</t>
   </si>
   <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
     <t>CERVANTES</t>
   </si>
   <si>
@@ -1411,6 +1414,9 @@
     <t>ARENAS</t>
   </si>
   <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
     <t>AULIS</t>
   </si>
   <si>
@@ -1456,6 +1462,9 @@
     <t>JOSMAR ANTONIO</t>
   </si>
   <si>
+    <t>KEVIN HONAM</t>
+  </si>
+  <si>
     <t>GIOVANNI</t>
   </si>
   <si>
@@ -1549,6 +1558,9 @@
     <t>belloarenas123@gmail.com</t>
   </si>
   <si>
+    <t>kevininamador11@gmail.com</t>
+  </si>
+  <si>
     <t>gioglez2004@gmail.com</t>
   </si>
   <si>
@@ -1642,6 +1654,9 @@
     <t>2721855688</t>
   </si>
   <si>
+    <t>2722355008</t>
+  </si>
+  <si>
     <t>2722620504</t>
   </si>
   <si>
@@ -1748,6 +1763,9 @@
   </si>
   <si>
     <t>JOSE ANTONIO BELLO HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>CELIA AMADOR GARCIA</t>
   </si>
   <si>
     <t>CASILDO CERVANTES MOLOHUA</t>
@@ -4423,7 +4441,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4481,28 +4499,28 @@
         <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="H2" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="I2" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="J2" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -4516,28 +4534,28 @@
         <v>444</v>
       </c>
       <c r="C3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E3" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F3" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="G3" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="H3" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="I3" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="J3" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -4551,28 +4569,28 @@
         <v>445</v>
       </c>
       <c r="C4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E4" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F4" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="G4" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="H4" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="I4" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="J4" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -4586,25 +4604,25 @@
         <v>446</v>
       </c>
       <c r="C5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D5" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E5" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F5" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="H5" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="I5" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="J5" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -4612,156 +4630,150 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>19330051920316</v>
+        <v>19330051920312</v>
       </c>
       <c r="B6" t="s">
         <v>447</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>465</v>
       </c>
       <c r="D6" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E6" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F6" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G6" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H6" t="s">
-        <v>577</v>
-      </c>
-      <c r="I6" t="s">
-        <v>510</v>
-      </c>
-      <c r="J6" t="s">
-        <v>626</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>19330051920318</v>
+        <v>19330051920316</v>
       </c>
       <c r="B7" t="s">
         <v>448</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F7" t="s">
-        <v>542</v>
+        <v>546</v>
+      </c>
+      <c r="G7" t="s">
+        <v>546</v>
       </c>
       <c r="H7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="I7" t="s">
-        <v>608</v>
+        <v>514</v>
       </c>
       <c r="J7" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>19330051920319</v>
+        <v>19330051920318</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>449</v>
       </c>
       <c r="C8" t="s">
-        <v>464</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E8" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="F8" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H8" t="s">
-        <v>579</v>
+        <v>584</v>
+      </c>
+      <c r="I8" t="s">
+        <v>614</v>
+      </c>
+      <c r="J8" t="s">
+        <v>633</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>19330051920323</v>
+        <v>19330051920319</v>
       </c>
       <c r="B9" t="s">
-        <v>449</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D9" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E9" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F9" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H9" t="s">
-        <v>580</v>
-      </c>
-      <c r="I9" t="s">
-        <v>609</v>
-      </c>
-      <c r="J9" t="s">
-        <v>628</v>
+        <v>585</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>19330051920441</v>
+        <v>19330051920323</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>450</v>
       </c>
       <c r="C10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D10" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E10" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F10" t="s">
-        <v>545</v>
-      </c>
-      <c r="G10" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="H10" t="s">
-        <v>581</v>
+        <v>586</v>
+      </c>
+      <c r="I10" t="s">
+        <v>615</v>
       </c>
       <c r="J10" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -4769,165 +4781,165 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>19330051920325</v>
+        <v>19330051920441</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D11" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E11" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="F11" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="G11" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="H11" t="s">
-        <v>582</v>
-      </c>
-      <c r="I11" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="J11" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>19330051920321</v>
+        <v>19330051920325</v>
       </c>
       <c r="B12" t="s">
-        <v>450</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D12" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E12" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F12" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="G12" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="H12" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="I12" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="J12" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>19330051920330</v>
+        <v>19330051920321</v>
       </c>
       <c r="B13" t="s">
-        <v>300</v>
+        <v>451</v>
       </c>
       <c r="C13" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D13" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E13" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F13" t="s">
-        <v>548</v>
+        <v>552</v>
+      </c>
+      <c r="G13" t="s">
+        <v>552</v>
       </c>
       <c r="H13" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="I13" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="J13" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>19330051920332</v>
+        <v>19330051920330</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>471</v>
       </c>
       <c r="D14" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E14" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F14" t="s">
-        <v>549</v>
-      </c>
-      <c r="G14" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H14" t="s">
-        <v>585</v>
+        <v>590</v>
+      </c>
+      <c r="I14" t="s">
+        <v>618</v>
       </c>
       <c r="J14" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>19330051920331</v>
+        <v>19330051920332</v>
       </c>
       <c r="B15" t="s">
-        <v>451</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E15" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F15" t="s">
-        <v>550</v>
+        <v>554</v>
+      </c>
+      <c r="G15" t="s">
+        <v>554</v>
       </c>
       <c r="H15" t="s">
-        <v>586</v>
-      </c>
-      <c r="I15" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="J15" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -4935,66 +4947,66 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>19330051920333</v>
+        <v>19330051920331</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>452</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E16" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F16" t="s">
-        <v>551</v>
-      </c>
-      <c r="G16" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="H16" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="I16" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="J16" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>19330051920334</v>
+        <v>19330051920333</v>
       </c>
       <c r="B17" t="s">
-        <v>452</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E17" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F17" t="s">
-        <v>552</v>
+        <v>556</v>
+      </c>
+      <c r="G17" t="s">
+        <v>556</v>
       </c>
       <c r="H17" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="I17" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="J17" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -5002,95 +5014,101 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>19330051920337</v>
+        <v>19330051920334</v>
       </c>
       <c r="B18" t="s">
         <v>453</v>
       </c>
       <c r="C18" t="s">
-        <v>470</v>
+        <v>157</v>
       </c>
       <c r="D18" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E18" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F18" t="s">
-        <v>553</v>
-      </c>
-      <c r="G18" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="H18" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="I18" t="s">
-        <v>522</v>
+        <v>621</v>
       </c>
       <c r="J18" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>19330051920338</v>
+        <v>19330051920337</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>454</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>472</v>
       </c>
       <c r="D19" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E19" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F19" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>558</v>
       </c>
       <c r="H19" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="I19" t="s">
-        <v>127</v>
+        <v>526</v>
       </c>
       <c r="J19" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>19330051920342</v>
+        <v>19330051920338</v>
       </c>
       <c r="B20" t="s">
-        <v>454</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>471</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E20" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="F20" t="s">
-        <v>555</v>
+        <v>559</v>
+      </c>
+      <c r="G20" t="s">
+        <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>591</v>
+        <v>596</v>
+      </c>
+      <c r="I20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" t="s">
+        <v>644</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -5098,238 +5116,229 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>19330051920341</v>
+        <v>19330051920342</v>
       </c>
       <c r="B21" t="s">
         <v>455</v>
       </c>
       <c r="C21" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="D21" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E21" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="F21" t="s">
-        <v>556</v>
-      </c>
-      <c r="G21" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="H21" t="s">
-        <v>592</v>
-      </c>
-      <c r="I21" t="s">
-        <v>616</v>
-      </c>
-      <c r="J21" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>19330051920344</v>
+        <v>19330051920341</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>456</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>459</v>
       </c>
       <c r="D22" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E22" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F22" t="s">
-        <v>557</v>
+        <v>561</v>
+      </c>
+      <c r="G22" t="s">
+        <v>561</v>
       </c>
       <c r="H22" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="I22" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="J22" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>19330051920347</v>
+        <v>19330051920344</v>
       </c>
       <c r="B23" t="s">
-        <v>456</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
-        <v>472</v>
+        <v>152</v>
       </c>
       <c r="D23" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E23" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F23" t="s">
-        <v>558</v>
-      </c>
-      <c r="G23" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="H23" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="I23" t="s">
-        <v>527</v>
+        <v>623</v>
       </c>
       <c r="J23" t="s">
-        <v>558</v>
+        <v>646</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>19330051920440</v>
+        <v>19330051920347</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>457</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>474</v>
       </c>
       <c r="D24" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E24" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="F24" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="G24" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H24" t="s">
-        <v>595</v>
+        <v>600</v>
+      </c>
+      <c r="I24" t="s">
+        <v>531</v>
       </c>
       <c r="J24" t="s">
-        <v>641</v>
+        <v>563</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>19330051920345</v>
+        <v>19330051920440</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E25" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F25" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="G25" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="H25" t="s">
-        <v>596</v>
-      </c>
-      <c r="I25" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="J25" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>19330051920346</v>
+        <v>19330051920345</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E26" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="F26" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="G26" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="H26" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="I26" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="J26" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>19330051920350</v>
+        <v>19330051920346</v>
       </c>
       <c r="B27" t="s">
-        <v>457</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D27" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E27" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F27" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="G27" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="H27" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="I27" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="J27" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -5337,34 +5346,34 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>19330051920351</v>
+        <v>19330051920350</v>
       </c>
       <c r="B28" t="s">
         <v>458</v>
       </c>
       <c r="C28" t="s">
-        <v>473</v>
+        <v>309</v>
       </c>
       <c r="D28" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E28" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F28" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="G28" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="H28" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="I28" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="J28" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -5372,63 +5381,63 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>19330051920352</v>
+        <v>19330051920351</v>
       </c>
       <c r="B29" t="s">
-        <v>312</v>
+        <v>459</v>
       </c>
       <c r="C29" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D29" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E29" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F29" t="s">
-        <v>564</v>
+        <v>568</v>
+      </c>
+      <c r="G29" t="s">
+        <v>577</v>
       </c>
       <c r="H29" t="s">
-        <v>600</v>
+        <v>605</v>
+      </c>
+      <c r="I29" t="s">
+        <v>627</v>
       </c>
       <c r="J29" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>19330051920354</v>
+        <v>19330051920352</v>
       </c>
       <c r="B30" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>476</v>
       </c>
       <c r="D30" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E30" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="F30" t="s">
-        <v>565</v>
-      </c>
-      <c r="G30" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H30" t="s">
-        <v>601</v>
-      </c>
-      <c r="I30" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="J30" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -5436,62 +5445,97 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>19330051920353</v>
+        <v>19330051920354</v>
       </c>
       <c r="B31" t="s">
-        <v>459</v>
+        <v>316</v>
       </c>
       <c r="C31" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E31" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F31" t="s">
-        <v>566</v>
+        <v>570</v>
+      </c>
+      <c r="G31" t="s">
+        <v>570</v>
       </c>
       <c r="H31" t="s">
-        <v>602</v>
+        <v>607</v>
+      </c>
+      <c r="I31" t="s">
+        <v>628</v>
+      </c>
+      <c r="J31" t="s">
+        <v>653</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
+        <v>19330051920353</v>
+      </c>
+      <c r="B32" t="s">
+        <v>460</v>
+      </c>
+      <c r="C32" t="s">
+        <v>304</v>
+      </c>
+      <c r="D32" t="s">
+        <v>507</v>
+      </c>
+      <c r="E32" t="s">
+        <v>539</v>
+      </c>
+      <c r="F32" t="s">
+        <v>571</v>
+      </c>
+      <c r="H32" t="s">
+        <v>608</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
         <v>19330051920355</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>316</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>316</v>
       </c>
-      <c r="D32" t="s">
-        <v>505</v>
-      </c>
-      <c r="E32" t="s">
-        <v>536</v>
-      </c>
-      <c r="F32" t="s">
-        <v>567</v>
-      </c>
-      <c r="G32" t="s">
-        <v>567</v>
-      </c>
-      <c r="H32" t="s">
-        <v>603</v>
-      </c>
-      <c r="I32" t="s">
-        <v>536</v>
-      </c>
-      <c r="J32" t="s">
-        <v>648</v>
-      </c>
-      <c r="K32">
+      <c r="D33" t="s">
+        <v>508</v>
+      </c>
+      <c r="E33" t="s">
+        <v>540</v>
+      </c>
+      <c r="F33" t="s">
+        <v>572</v>
+      </c>
+      <c r="G33" t="s">
+        <v>572</v>
+      </c>
+      <c r="H33" t="s">
+        <v>609</v>
+      </c>
+      <c r="I33" t="s">
+        <v>540</v>
+      </c>
+      <c r="J33" t="s">
+        <v>654</v>
+      </c>
+      <c r="K33">
         <v>0</v>
       </c>
     </row>

--- a/Acevedo Rendón Ismael Arturo 20212.xlsx
+++ b/Acevedo Rendón Ismael Arturo 20212.xlsx
@@ -4653,6 +4653,9 @@
       <c r="H6" t="s">
         <v>582</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
